--- a/data/附件5A.xlsx
+++ b/data/附件5A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e231ca99f5b3f71f/work/专项工作/部门工作/2020-2024年预算编制/招商产业2020预算——数字化/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="11_C7CDAA3314ECFF726629598F650EE1B37F3297E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EF09C46F-A211-4AC9-BB7B-AD1852D87C6F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979D35D9-67C4-4041-AD8B-60644E3F420D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数字化办公设备购置预算汇总表" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="199">
   <si>
     <t>序号</t>
   </si>
@@ -218,28 +220,7 @@
     <t>三、未立项或没有项目支撑</t>
   </si>
   <si>
-    <t>智慧园区（二期）项目建设</t>
-  </si>
-  <si>
-    <t>所有园区均可复用</t>
-  </si>
-  <si>
-    <t>1.中软国际
-2.深圳左邻永佳科技有限公司
-3.优客工场
-4.中博科技
-5.远景科技</t>
-  </si>
-  <si>
     <t>招商产业</t>
-  </si>
-  <si>
-    <t>产业通（二期）项目建设</t>
-  </si>
-  <si>
-    <t>1.好租
-2.火石科技
-3.鲸准科技</t>
   </si>
   <si>
     <t>截至2019年末
@@ -457,10 +438,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>招商产业拓展、智能招商需求预算300万；各区域产业通应用需求预算300万。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>仓库安全信息化系统云服务器、云数据库租赁</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -474,17 +451,6 @@
   </si>
   <si>
     <t>深圳市德传技术有限公司</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>其中园区运营管理子系统软件开发费用为200万
-智慧能源400万，包括如下内容：
-  - 电 100万
-  - 风 114万
-  - 水 50万
-  - 能源使用行为分析 136万
-蛇口园区数字模型软件开发费用：100万
-5G智慧园区试点应用：200万</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -746,112 +712,15 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>优客工场（北京）创业投资有限公司</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商局蛇口工业区控股股份有限公司</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>产业通一期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>双创领导小组会议纪要
-（2018年第4次）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>深圳市招商创业有限公司</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>产业园区事业部总经理办公会议纪要（2019年第3次）议题三</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>支撑跨区多项目的业务管理模块：系统建设围绕创库产品内部流程管理需要，建设实现系统流程IT支撑配套管理体系。为后台用户提供内部审批流功能，预设多种审批条件及审批流程，支持自定义审批流程。
-移动运营APP:支撑运营人员随时随地方便快捷的查看各种智能设备的状态、控制设备开关、切换预设模式等动作，使运营人员更好地管理社区内智能设备，同时在运营过程中辅助能耗的监控降低资源浪费，节约成本。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京雨花石云计算科技股份有限公司</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>以园区运营服务标准体系流程为基础，从营销策划、招商管理、客服管理、增值服务、智能分析与产品优化等五个方面梳理需求，结合事业部拓展业务需要</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>产业园区事业部签报
-园区运营签【2018】5号</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>万海大厦B座大堂品质升级改造采购项目</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商产业发展有限公司签报
-招产业管理签【2019】19号</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、大厦物业建设目标
-访客体验提升：电子化访客系统的建设，访客与内部人员会晤无需一遍又一遍电话确认，无需排队等待，且访客无需抵押身份证等有效证件并担心信息泄露的风险，解决访客顾虑，减轻前台及安保人员的工作压力。
-安全提升：访客来访过程流程化、电子化，实现前台人脸自助授权，核验身份信息后准许通行，保证大厦固定资产安全；动态的电子化通行系统，有效防止卡片被复制以及信息泄露的风险；所有的通行记录都可被精确记录保存，如后期发生安保问题，可追溯提供依据；可定制通行规则、通行时间等，禁止人员在非正常时间内出入。
-通行效率提升：大厦所有的办公人员（含租售与大厦办公人员）均使用人脸识别方案，极大的增加通行效率，省去了刷卡、找卡、拿卡的过程及时间，高峰时期人员权限一一对应，快速识别、高速通行。
-价值提升：数字化的访客、人脸通行系统提升了万海大厦B座大堂形象，提升了招商物业服务的价值；每个智能硬件状态实时自检，如有掉线或故障及时告警，方便物业运营以及维护设备设施，最大化节约物业人力物力。
-主动安防：大厦楼层众多，租售与自用混合，人员复杂且难以管理，利用人脸识别技术，将传统被动安防转为主动安防，所有的布控事件都可检索，人员标签化，事件标签化，并可进行人员数据交互定位，意外情况发生时，快速查找数据源头，准确快速找到原因。
-降低服务人员成本：实现人防、 物防、技防的三重安防体系，技防可实现24小时全天候安防体系，有效降低安防人力成本。
-2、大厦管理层的建设目标
-统一集成化智能办公：通过办公场所通行技术的提升，加强相关办公场所的管控，提高基层员工的工作效率，节约通行时间；通过智能化建设传统通行与人脸识别技术相结合，为万海大厦B座大堂工程设计树立典范，提升万海大厦B座大堂基层员工高效率办公的能力。
-系统集成：通道通行系统、访客通行系统能提供标准API接口或者能将数据推送至其他系统，数据加密，最高级别的安保出入流程，基层员工的所有数据集中管理，打造无缝的办公系统。
-分布式部署，集中管控：设备可分布式部署在万海大厦B座大堂任意地点，通过集中式管理体系，辅助集中管控人员的变化、流向、通行时间、通行次数以及访客相对应的信息等。
-信息安全：数字化的通信、数据传输、访客等，有效规避了纸质登记簿对可能存在的访客信息泄露；动态的技术和人脸识别技术避免了卡被复制、代刷的可能性；手机与数据系统、人脸识别系统绑定，保证了数据一致性。
-提升办公效率：通过数据整合、分析，可了解到办公场地使用率、员工工作效率、员工工作时间，结合员工情况，多方面协同合作，释放员工活力，提升人员使用效率，提高员工与中层管理人员的附加值，大幅提高管理效率。
-开放环境：通过数字化通行系统，更加开放的通行策略，与访客系统结合，帮助企业建立一个开放的、面向服务的、灵活的、安全的更智慧的智能化基础设施架构。提升系统的整体智能化水平，降低管理人员的人力成本投入，提升管理效率，达到优秀管理的目的。
-提升访客体验：传统的访客业务流程，需要进行手工登记和人工身份验证，存在操作复杂，登记信息真实性难以分辨，访客体验差等不足。采用人脸技术，可以确保真实、准确记录访客信息，并对访客人脸识别进出进行完整记录，极大提升访客体验。
-实人制认证，防止代刷：人脸拥有与生俱来唯一属性和不易被复制的良好特性，为身份鉴别提供了必要的前提，采用人脸识别技术取代卡片进行身份识别认证的，避免拥有采用代刷卡等现象携带非认证人员进入场所，极大提升场所的安全。
-快速验证进出人员身份，规范人员进出秩序：采用人证比对技术验证来访人员真实身份，快速放行通过认证的人员。
-价值提升：在大厦一楼设置VIP迎宾显示墙，对每个路过的VIP进行布控抓拍捕捉对比，输出到电视墙进行特定的欢迎致辞，每个人的致辞可定制，加强亲切感，加强VIP归属感，提升自身大厦的价值。
-数据分析：对访客来访信息与被访人信息做大数据分析、为后期精准业务服务提供数据支撑；系统能整合相关数据记录，例如总体的访客数据、员工数据、个人进出数据等，进行分多维度分析，可生成多种报表，提供可视化的图形，为管理提供参考依据等。例如可分析外卖人员出入次数、出现的时间段等，对周围商铺功能进行合理划分，且能将统计数据展现给相关餐饮店铺，提升大厦数据价值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇口网谷</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳市商汤科技有限公司</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>打造一套包括:
-以蛇口片区为核心包括蛇口网谷、南海意库周边36平方公里航拍数据为底, 模拟并还原周边L2城市建筑、L3园区建筑进行3D场景还原构建园区的数字模型 ; 以创业壹号的创库室内智能设备为底, 构建L3智慧楼宇, 完成数字孪生底板搭建
-以创业壹号智能化场景为样例, 完成相关房源信息、能源能耗、工位会议室占用等数据信息集成,通过可视面板设计,提供运营态势分析、能效实时监测，试点物联产品融合实时数据实现PaaS可视化服务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>产业园区数字孪生（蛇口项目试点）项目</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>产业园区事业部文件
-产园发综合管理字【2019】192号</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>蛇口网谷、意库</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>——</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>园区智慧能源管理系统采购合同</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -865,122 +734,12 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>北京博锐尚格节能技术股份有限公司</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>园区智慧能源管理系统服务器租赁协议</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>小招通四期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现国际化版本以及国际创新孵化平台</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>小招通二期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>小招通三期</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1、广州市诚毅科技软件开发有限公司
 2、深圳市易联联盟科技有限公司</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">依据国家发改委对双创建设的要求，以及公司对创库联合办公空间的要求，小招通二期拟建设如下系统：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">	移动端APP：为入住企业员工提供服务；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">	微信公众号：为潜在客户提供服务；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">	WEB门户：提供双创“云创业技术公共服务平台”的线上门户；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">	PC端后台管理：提供小招通各类前端系统的后台支撑及管理功能。</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">截至2019年末累计支付 </t>
@@ -999,7 +758,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1097,15 +856,8 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei Light"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1142,14 +894,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1211,19 +957,6 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1296,7 +1029,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1411,7 +1144,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1426,13 +1159,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1453,24 +1183,12 @@
     <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1478,13 +1196,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1495,37 +1207,28 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1866,41 +1569,41 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="81" t="s">
+      <c r="C1" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="73"/>
+      <c r="F1" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="71" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
+    <row r="2" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1916,9 +1619,9 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="82"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="72"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
@@ -1947,7 +1650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1976,7 +1679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>12</v>
       </c>
@@ -2007,7 +1710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>13</v>
       </c>
@@ -2037,7 +1740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>14</v>
       </c>
@@ -2054,7 +1757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>15</v>
       </c>
@@ -2071,7 +1774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>16</v>
       </c>
@@ -2088,7 +1791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
@@ -2111,10 +1814,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="19" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29">
@@ -2126,10 +1829,10 @@
       <c r="H11" s="29"/>
       <c r="I11" s="40"/>
     </row>
-    <row r="12" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="19" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29">
@@ -2142,10 +1845,10 @@
       <c r="H12" s="29"/>
       <c r="I12" s="40"/>
     </row>
-    <row r="13" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="19" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29">
@@ -2158,10 +1861,10 @@
       <c r="H13" s="29"/>
       <c r="I13" s="40"/>
     </row>
-    <row r="14" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" s="19" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29">
@@ -2173,10 +1876,10 @@
       <c r="H14" s="29"/>
       <c r="I14" s="40"/>
     </row>
-    <row r="15" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="19" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29">
@@ -2188,10 +1891,10 @@
       <c r="H15" s="29"/>
       <c r="I15" s="40"/>
     </row>
-    <row r="16" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29">
@@ -2203,10 +1906,10 @@
       <c r="H16" s="29"/>
       <c r="I16" s="40"/>
     </row>
-    <row r="17" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="19" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29">
@@ -2218,10 +1921,10 @@
       <c r="H17" s="29"/>
       <c r="I17" s="40"/>
     </row>
-    <row r="18" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="19" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29">
@@ -2233,10 +1936,10 @@
       <c r="H18" s="29"/>
       <c r="I18" s="40"/>
     </row>
-    <row r="19" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="19" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29">
@@ -2248,10 +1951,10 @@
       <c r="H19" s="29"/>
       <c r="I19" s="40"/>
     </row>
-    <row r="20" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="19" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29">
@@ -2263,10 +1966,10 @@
       <c r="H20" s="29"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="19" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29">
@@ -2278,10 +1981,10 @@
       <c r="H21" s="29"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="19" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29">
@@ -2293,10 +1996,10 @@
       <c r="H22" s="29"/>
       <c r="I22" s="40"/>
     </row>
-    <row r="23" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29">
@@ -2308,10 +2011,10 @@
       <c r="H23" s="29"/>
       <c r="I23" s="40"/>
     </row>
-    <row r="24" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="19" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29">
@@ -2323,10 +2026,10 @@
       <c r="H24" s="29"/>
       <c r="I24" s="40"/>
     </row>
-    <row r="25" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="19" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29">
@@ -2338,10 +2041,10 @@
       <c r="H25" s="29"/>
       <c r="I25" s="40"/>
     </row>
-    <row r="26" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="19" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29">
@@ -2353,10 +2056,10 @@
       <c r="H26" s="29"/>
       <c r="I26" s="40"/>
     </row>
-    <row r="27" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="19" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29">
@@ -2368,10 +2071,10 @@
       <c r="H27" s="29"/>
       <c r="I27" s="40"/>
     </row>
-    <row r="28" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="19" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29">
@@ -2383,10 +2086,10 @@
       <c r="H28" s="29"/>
       <c r="I28" s="40"/>
     </row>
-    <row r="29" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="19" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29">
@@ -2398,10 +2101,10 @@
       <c r="H29" s="29"/>
       <c r="I29" s="40"/>
     </row>
-    <row r="30" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44"/>
       <c r="B30" s="19" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29">
@@ -2413,10 +2116,10 @@
       <c r="H30" s="29"/>
       <c r="I30" s="40"/>
     </row>
-    <row r="31" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44"/>
       <c r="B31" s="19" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29">
@@ -2428,10 +2131,10 @@
       <c r="H31" s="29"/>
       <c r="I31" s="40"/>
     </row>
-    <row r="32" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44"/>
       <c r="B32" s="19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29">
@@ -2443,10 +2146,10 @@
       <c r="H32" s="29"/>
       <c r="I32" s="40"/>
     </row>
-    <row r="33" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44"/>
       <c r="B33" s="19" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29">
@@ -2458,10 +2161,10 @@
       <c r="H33" s="29"/>
       <c r="I33" s="40"/>
     </row>
-    <row r="34" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44"/>
       <c r="B34" s="19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29">
@@ -2473,10 +2176,10 @@
       <c r="H34" s="29"/>
       <c r="I34" s="40"/>
     </row>
-    <row r="35" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
       <c r="B35" s="19" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="29">
@@ -2488,10 +2191,10 @@
       <c r="H35" s="29"/>
       <c r="I35" s="40"/>
     </row>
-    <row r="36" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" s="19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29">
@@ -2503,10 +2206,10 @@
       <c r="H36" s="29"/>
       <c r="I36" s="40"/>
     </row>
-    <row r="37" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" s="19" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29">
@@ -2518,10 +2221,10 @@
       <c r="H37" s="29"/>
       <c r="I37" s="40"/>
     </row>
-    <row r="38" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29">
@@ -2533,10 +2236,10 @@
       <c r="H38" s="29"/>
       <c r="I38" s="40"/>
     </row>
-    <row r="39" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" s="19" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29">
@@ -2548,12 +2251,12 @@
       <c r="H39" s="29"/>
       <c r="I39" s="40"/>
     </row>
-    <row r="40" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44">
         <v>1</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
@@ -2568,15 +2271,15 @@
         <v>10</v>
       </c>
       <c r="I40" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>2</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -2591,15 +2294,15 @@
         <v>4</v>
       </c>
       <c r="I41" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="44">
         <v>3</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
@@ -2614,15 +2317,15 @@
         <v>0.4</v>
       </c>
       <c r="I42" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <v>4</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
@@ -2637,15 +2340,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="44">
         <v>5</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
@@ -2660,15 +2363,15 @@
         <v>0.25</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>6</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
@@ -2683,15 +2386,15 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="I45" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="44">
         <v>7</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
@@ -2706,15 +2409,15 @@
         <v>1.6</v>
       </c>
       <c r="I46" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <v>8</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
@@ -2729,15 +2432,15 @@
         <v>1.0499999999999998</v>
       </c>
       <c r="I47" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="44">
         <v>9</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
@@ -2752,15 +2455,15 @@
         <v>0.98</v>
       </c>
       <c r="I48" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <v>10</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
@@ -2775,15 +2478,15 @@
         <v>1</v>
       </c>
       <c r="I49" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="44">
         <v>11</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
@@ -2798,15 +2501,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I50" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <v>12</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
@@ -2821,15 +2524,15 @@
         <v>0.1</v>
       </c>
       <c r="I51" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="44">
         <v>13</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
@@ -2844,15 +2547,15 @@
         <v>0.26</v>
       </c>
       <c r="I52" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
         <v>14</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
@@ -2867,15 +2570,15 @@
         <v>3</v>
       </c>
       <c r="I53" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="44">
         <v>15</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
@@ -2890,15 +2593,15 @@
         <v>0.25</v>
       </c>
       <c r="I54" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <v>16</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
@@ -2913,15 +2616,15 @@
         <v>0.4</v>
       </c>
       <c r="I55" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="44">
         <v>17</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
@@ -2936,15 +2639,15 @@
         <v>0.4</v>
       </c>
       <c r="I56" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <v>18</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
@@ -2959,15 +2662,15 @@
         <v>0.2</v>
       </c>
       <c r="I57" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="44">
         <v>19</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -2982,15 +2685,15 @@
         <v>0.4</v>
       </c>
       <c r="I58" s="40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>20</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -3005,15 +2708,15 @@
         <v>0.5</v>
       </c>
       <c r="I59" s="40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="44">
         <v>21</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -3028,15 +2731,15 @@
         <v>2.46</v>
       </c>
       <c r="I60" s="40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <v>22</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -3051,15 +2754,15 @@
         <v>9.9900000000000003E-2</v>
       </c>
       <c r="I61" s="40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="44">
         <v>23</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -3074,15 +2777,15 @@
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="I62" s="40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="39">
         <v>24</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
@@ -3097,15 +2800,15 @@
         <v>0.1</v>
       </c>
       <c r="I63" s="40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="44">
         <v>25</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
@@ -3120,15 +2823,15 @@
         <v>0.01</v>
       </c>
       <c r="I64" s="40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>26</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
@@ -3143,15 +2846,15 @@
         <v>0.3</v>
       </c>
       <c r="I65" s="40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="44">
         <v>27</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
@@ -3166,15 +2869,15 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="I66" s="40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <v>28</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
@@ -3189,15 +2892,15 @@
         <v>0.3</v>
       </c>
       <c r="I67" s="40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="44">
         <v>29</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
@@ -3212,15 +2915,15 @@
         <v>9.9900000000000003E-2</v>
       </c>
       <c r="I68" s="40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="39">
         <v>30</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
@@ -3235,15 +2938,15 @@
         <v>0.19900000000000001</v>
       </c>
       <c r="I69" s="40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="44">
         <v>31</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
@@ -3258,15 +2961,15 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="I70" s="40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <v>32</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
@@ -3281,7 +2984,7 @@
         <v>0.8</v>
       </c>
       <c r="I71" s="40" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3302,1086 +3005,596 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="46" customWidth="1"/>
     <col min="2" max="2" width="36" style="46" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="46" customWidth="1"/>
-    <col min="4" max="12" width="21.42578125" style="46" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="46" customWidth="1"/>
-    <col min="14" max="20" width="21.42578125" style="46" customWidth="1"/>
-    <col min="21" max="21" width="35.85546875" style="46" customWidth="1"/>
-    <col min="22" max="22" width="28.5703125" style="46" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="46"/>
+    <col min="3" max="3" width="30.109375" style="46" customWidth="1"/>
+    <col min="4" max="12" width="21.44140625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="46" customWidth="1"/>
+    <col min="14" max="20" width="21.44140625" style="46" customWidth="1"/>
+    <col min="21" max="21" width="35.88671875" style="46" customWidth="1"/>
+    <col min="22" max="22" width="28.5546875" style="46" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="84" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="N1" s="84" t="s">
-        <v>229</v>
-      </c>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="84" t="s">
+      <c r="M1" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="N1" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="84" t="s">
+      <c r="V1" s="74" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="85"/>
-      <c r="B2" s="84" t="s">
+    <row r="2" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="75"/>
+      <c r="B2" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="84" t="s">
+      <c r="J2" s="75"/>
+      <c r="K2" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="84" t="s">
+      <c r="L2" s="74"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="O2" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="86"/>
-    </row>
-    <row r="3" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="50" t="s">
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="76"/>
+    </row>
+    <row r="3" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="Q3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="R3" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="S3" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="85"/>
-      <c r="V3" s="86"/>
-    </row>
-    <row r="4" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="50" t="s">
+      <c r="U3" s="75"/>
+      <c r="V3" s="76"/>
+    </row>
+    <row r="4" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="50" t="s">
+      <c r="N4" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="50" t="s">
+      <c r="Q4" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="50" t="s">
+      <c r="R4" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="50" t="s">
+      <c r="S4" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="50" t="s">
+      <c r="T4" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="50" t="s">
+      <c r="U4" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="50" t="s">
+      <c r="V4" s="49" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="50" t="s">
+    <row r="5" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="54" t="s">
+      <c r="C5" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="52">
-        <v>1</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="57">
-        <v>43262</v>
-      </c>
-      <c r="G7" s="57">
-        <v>44561</v>
-      </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="78">
-        <v>279.03580499999998</v>
-      </c>
-      <c r="J7" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="K7" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="L7" s="59">
-        <v>158.40424999999999</v>
-      </c>
-      <c r="M7" s="78">
-        <v>158.40424999999999</v>
-      </c>
-      <c r="N7" s="60">
-        <f>SUM(O7:T7)</f>
-        <v>59.530465</v>
-      </c>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78">
-        <v>59.530465</v>
-      </c>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="61"/>
-    </row>
-    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="52">
-        <v>2</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="57">
-        <v>43644</v>
-      </c>
-      <c r="G8" s="57">
-        <v>44561</v>
-      </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="78">
-        <v>160</v>
-      </c>
-      <c r="J8" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="K8" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="L8" s="59">
+      <c r="C6" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="52"/>
+      <c r="J6" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="52"/>
+      <c r="J7" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="56">
+        <f t="shared" ref="N7:N8" si="0">SUM(O7:T7)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="78">
-        <v>0</v>
-      </c>
-      <c r="N8" s="60">
-        <f t="shared" ref="N8:N17" si="0">SUM(O8:T8)</f>
-        <v>144</v>
-      </c>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78">
-        <v>144</v>
-      </c>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="61"/>
-    </row>
-    <row r="9" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="52">
-        <v>3</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="57">
-        <v>43553</v>
-      </c>
-      <c r="G9" s="57">
-        <v>45473</v>
-      </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="78">
-        <v>187.4</v>
-      </c>
-      <c r="J9" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="K9" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="L9" s="59">
-        <v>100.1</v>
-      </c>
-      <c r="M9" s="78">
-        <v>100.1</v>
-      </c>
-      <c r="N9" s="60">
-        <f t="shared" si="0"/>
-        <v>16.8</v>
-      </c>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78">
-        <v>16.8</v>
-      </c>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="61"/>
-    </row>
-    <row r="10" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="52">
-        <v>4</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="F10" s="57">
-        <v>43800</v>
-      </c>
-      <c r="G10" s="57">
-        <v>45808</v>
-      </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="78">
-        <v>34.604759999999999</v>
-      </c>
-      <c r="J10" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="K10" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="L10" s="59">
-        <v>0</v>
-      </c>
-      <c r="M10" s="78">
-        <v>0</v>
-      </c>
-      <c r="N10" s="60">
-        <f t="shared" si="0"/>
-        <v>29.414045999999999</v>
-      </c>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78">
-        <v>29.414045999999999</v>
-      </c>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="61"/>
-    </row>
-    <row r="11" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="60">
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="14.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="52"/>
+      <c r="J8" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="V11" s="52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52"/>
-      <c r="B12" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="F12" s="57">
-        <v>43891</v>
-      </c>
-      <c r="G12" s="57">
-        <v>44105</v>
-      </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="78">
-        <v>42.798299999999998</v>
-      </c>
-      <c r="J12" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="K12" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="L12" s="59">
-        <f>I12</f>
-        <v>42.798299999999998</v>
-      </c>
-      <c r="M12" s="78">
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" s="51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="150" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="57">
+        <v>3</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="58">
+        <v>43831</v>
+      </c>
+      <c r="G9" s="58">
+        <v>44196</v>
+      </c>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56">
+        <v>180</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" s="60">
+        <v>180</v>
+      </c>
+      <c r="M9" s="47"/>
+      <c r="N9" s="61">
+        <f t="shared" ref="N9" si="1">SUM(O9:T9)</f>
+        <v>180</v>
+      </c>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56">
+        <v>60</v>
+      </c>
+      <c r="R9" s="56">
+        <v>120</v>
+      </c>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="120" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="57">
+        <v>4</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="58">
+        <v>43831</v>
+      </c>
+      <c r="G10" s="58">
+        <v>44196</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="56">
+        <v>300</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="63">
+        <v>320</v>
+      </c>
+      <c r="M10" s="48"/>
+      <c r="N10" s="64">
+        <f>SUM(O10:T10)</f>
+        <v>320</v>
+      </c>
+      <c r="O10" s="56">
         <v>0</v>
       </c>
-      <c r="N12" s="60">
-        <f>SUM(O12:T12)</f>
-        <v>40.659999999999997</v>
-      </c>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="78">
-        <v>28.5</v>
-      </c>
-      <c r="R12" s="78">
-        <v>12.16</v>
-      </c>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="61"/>
-    </row>
-    <row r="13" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="F13" s="57">
-        <v>43891</v>
-      </c>
-      <c r="G13" s="57">
-        <v>44105</v>
-      </c>
-      <c r="H13" s="58" t="s">
+      <c r="P10" s="56">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="56">
+        <v>20</v>
+      </c>
+      <c r="R10" s="56">
+        <v>60</v>
+      </c>
+      <c r="S10" s="56">
+        <v>40</v>
+      </c>
+      <c r="T10" s="56">
+        <v>0</v>
+      </c>
+      <c r="U10" s="56"/>
+      <c r="V10" s="59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="285" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="57">
+        <v>5</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="78">
-        <v>94</v>
-      </c>
-      <c r="J13" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="K13" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="L13" s="59">
-        <f>I13</f>
-        <v>94</v>
-      </c>
-      <c r="M13" s="78">
-        <v>0</v>
-      </c>
-      <c r="N13" s="60">
-        <f t="shared" si="0"/>
-        <v>89.3</v>
-      </c>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78">
-        <v>89.3</v>
-      </c>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="V13" s="61" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="V14" s="52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="47" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="62">
-        <v>2</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="63">
-        <v>43831</v>
-      </c>
-      <c r="G15" s="63">
-        <v>44196</v>
-      </c>
-      <c r="H15" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="78">
-        <v>300</v>
-      </c>
-      <c r="J15" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="K15" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" s="59">
-        <f>I15</f>
-        <v>300</v>
-      </c>
-      <c r="M15" s="79">
-        <v>0</v>
-      </c>
-      <c r="N15" s="60">
-        <f>SUM(O15:T15)</f>
-        <v>270</v>
-      </c>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78">
-        <v>270</v>
-      </c>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="V15" s="65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="47" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="63">
-        <v>43831</v>
-      </c>
-      <c r="G16" s="63">
-        <v>44196</v>
-      </c>
-      <c r="H16" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="78">
-        <v>300</v>
-      </c>
-      <c r="J16" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="K16" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="59">
-        <f>I16</f>
-        <v>300</v>
-      </c>
-      <c r="M16" s="78">
-        <v>0</v>
-      </c>
-      <c r="N16" s="60">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78">
-        <v>270</v>
-      </c>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="V16" s="65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" s="47" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="62"/>
-      <c r="B17" s="56" t="s">
-        <v>222</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="63">
-        <v>43831</v>
-      </c>
-      <c r="G17" s="63">
-        <v>44196</v>
-      </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="78">
-        <v>100</v>
-      </c>
-      <c r="J17" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="K17" s="66"/>
-      <c r="L17" s="59">
-        <f>I17</f>
-        <v>100</v>
-      </c>
-      <c r="M17" s="80">
-        <v>0</v>
-      </c>
-      <c r="N17" s="60">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78">
-        <f>L17*0.9</f>
-        <v>90</v>
-      </c>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="65"/>
-    </row>
-    <row r="18" spans="1:22" ht="165" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="62">
-        <v>3</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="63">
-        <v>43831</v>
-      </c>
-      <c r="G18" s="63">
-        <v>44196</v>
-      </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="60">
-        <v>180</v>
-      </c>
-      <c r="J18" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="K18" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="L18" s="67">
-        <v>180</v>
-      </c>
-      <c r="M18" s="48"/>
-      <c r="N18" s="68">
-        <f t="shared" ref="N18" si="1">SUM(O18:T18)</f>
-        <v>180</v>
-      </c>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60">
-        <v>60</v>
-      </c>
-      <c r="R18" s="60">
-        <v>120</v>
-      </c>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="65" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="132" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="62">
-        <v>4</v>
-      </c>
-      <c r="B19" s="52" t="s">
+      <c r="I11" s="68">
+        <v>50</v>
+      </c>
+      <c r="J11" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="63">
-        <v>43831</v>
-      </c>
-      <c r="G19" s="63">
-        <v>44196</v>
-      </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="60">
-        <v>300</v>
-      </c>
-      <c r="J19" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="70">
-        <v>320</v>
-      </c>
-      <c r="M19" s="49"/>
-      <c r="N19" s="71">
-        <f>SUM(O19:T19)</f>
-        <v>320</v>
-      </c>
-      <c r="O19" s="60">
-        <v>0</v>
-      </c>
-      <c r="P19" s="60">
-        <v>200</v>
-      </c>
-      <c r="Q19" s="60">
-        <v>20</v>
-      </c>
-      <c r="R19" s="60">
-        <v>60</v>
-      </c>
-      <c r="S19" s="60">
-        <v>40</v>
-      </c>
-      <c r="T19" s="60">
-        <v>0</v>
-      </c>
-      <c r="U19" s="60"/>
-      <c r="V19" s="65" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="313.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="62">
-        <v>5</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="72" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="73" t="s">
+      <c r="K11" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="75">
+      <c r="L11" s="70">
         <v>50</v>
       </c>
-      <c r="J20" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="L20" s="77">
+      <c r="M11" s="47"/>
+      <c r="N11" s="70">
+        <f>SUM(O11:T11)</f>
         <v>50</v>
       </c>
-      <c r="M20" s="48"/>
-      <c r="N20" s="77">
-        <f>SUM(O20:T20)</f>
-        <v>50</v>
-      </c>
-      <c r="O20" s="68"/>
-      <c r="P20" s="60">
+      <c r="O11" s="61"/>
+      <c r="P11" s="56">
         <v>12</v>
       </c>
-      <c r="Q20" s="60">
+      <c r="Q11" s="56">
         <v>31.98</v>
       </c>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60">
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56">
         <v>6.02</v>
       </c>
-      <c r="U20" s="60"/>
-      <c r="V20" s="65" t="s">
-        <v>118</v>
+      <c r="U11" s="56"/>
+      <c r="V11" s="59" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="U1:U3"/>
     <mergeCell ref="V1:V3"/>
@@ -4396,11 +3609,6 @@
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="M1:M3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4420,182 +3628,182 @@
       <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" customWidth="1"/>
-    <col min="11" max="12" width="21.42578125" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" customWidth="1"/>
-    <col min="14" max="23" width="21.42578125" customWidth="1"/>
-    <col min="24" max="24" width="31.42578125" customWidth="1"/>
-    <col min="25" max="25" width="28.5703125" customWidth="1"/>
+    <col min="4" max="9" width="21.44140625" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" customWidth="1"/>
+    <col min="11" max="12" width="21.44140625" customWidth="1"/>
+    <col min="13" max="13" width="27.5546875" customWidth="1"/>
+    <col min="14" max="23" width="21.44140625" customWidth="1"/>
+    <col min="24" max="24" width="31.44140625" customWidth="1"/>
+    <col min="25" max="25" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:26" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="81" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="81" t="s">
+      <c r="K1" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="L1" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="M1" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="73"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="73"/>
+      <c r="N2" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="72"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="81" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
+      <c r="Q3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="81" t="s">
+      <c r="R3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81" t="s">
+      <c r="S3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="82"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="W3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="82"/>
-    </row>
-    <row r="4" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X3" s="73"/>
+      <c r="Y3" s="72"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -4663,16 +3871,16 @@
         <v>58</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4723,7 +3931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -4774,21 +3982,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="1" customFormat="1" ht="108" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F7" s="11">
         <v>43841</v>
@@ -4802,10 +4010,10 @@
         <v>144000</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L7" s="27">
         <v>144000</v>
@@ -4833,27 +4041,27 @@
       <c r="W7" s="33"/>
       <c r="X7" s="33"/>
       <c r="Y7" s="34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z7" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="F8" s="45">
         <v>43800</v>
@@ -4867,10 +4075,10 @@
         <v>150000</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L8" s="27">
         <v>150000</v>
@@ -4896,7 +4104,7 @@
       <c r="Y8" s="34"/>
       <c r="Z8" s="35"/>
     </row>
-    <row r="9" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -4947,21 +4155,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F10" s="14">
         <v>44013</v>
@@ -4975,10 +4183,10 @@
         <v>360000</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L10" s="28">
         <v>360000</v>
@@ -5003,24 +4211,24 @@
       <c r="W10" s="28"/>
       <c r="X10" s="13"/>
       <c r="Y10" s="34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F11" s="17">
         <v>43831</v>
@@ -5029,17 +4237,17 @@
         <v>44196</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I11" s="25">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L11" s="29">
         <v>500000</v>
@@ -5063,27 +4271,27 @@
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
       <c r="X11" s="16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Y11" s="36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>3</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F12" s="17">
         <v>43831</v>
@@ -5099,10 +4307,10 @@
         <v>500000</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L12" s="29">
         <v>500000</v>
@@ -5129,10 +4337,10 @@
         <v>25</v>
       </c>
       <c r="Y12" s="36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -5183,21 +4391,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" ht="148.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>1</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F14" s="11">
         <v>43841</v>
@@ -5211,10 +4419,10 @@
         <v>150000</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L14" s="27">
         <v>150000</v>
@@ -5245,22 +4453,22 @@
         <v>25</v>
       </c>
       <c r="Y14" s="34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>2</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F15" s="11">
         <v>43841</v>
@@ -5274,10 +4482,10 @@
         <v>150000</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L15" s="27">
         <v>150000</v>
@@ -5308,22 +4516,22 @@
         <v>25</v>
       </c>
       <c r="Y15" s="34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="216" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>3</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F16" s="11">
         <v>44013</v>
@@ -5335,10 +4543,10 @@
         <v>10</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -5365,11 +4573,16 @@
         <v>25</v>
       </c>
       <c r="Y16" s="34" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="Y1:Y3"/>
@@ -5384,11 +4597,6 @@
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="M1:M3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
